--- a/data/trans_dic/CONS_HIP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,91%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>10,78%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,99%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>8,38%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,65</t>
+          <t>3,34; 6,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,67</t>
+          <t>3,64; 8,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,31</t>
+          <t>1,81; 5,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,23</t>
+          <t>4,2; 8,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,06</t>
+          <t>3,93; 7,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,69</t>
+          <t>4,18; 9,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,47</t>
+          <t>3,34; 7,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,7</t>
+          <t>8,32; 13,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,86</t>
+          <t>4,05; 6,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,33</t>
+          <t>4,47; 7,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,9</t>
+          <t>2,85; 5,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,88</t>
+          <t>6,85; 10,31</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,98%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>12,38%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>10,5%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,96%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,09</t>
+          <t>3,21; 7,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,16</t>
+          <t>3,22; 8,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,3</t>
+          <t>1,52; 5,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,81</t>
+          <t>5,35; 12,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,42</t>
+          <t>5,14; 9,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,3</t>
+          <t>6,41; 12,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,32</t>
+          <t>4,14; 9,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,62</t>
+          <t>9,46; 16,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,05</t>
+          <t>4,84; 7,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 13,4</t>
+          <t>5,2; 8,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,64</t>
+          <t>3,42; 6,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,85</t>
+          <t>8,41; 13,29</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>12,92%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,72%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>27,21%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,45%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>18,26%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,32</t>
+          <t>5,63; 9,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 20,77</t>
+          <t>0,75; 7,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,8</t>
+          <t>1,58; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,52</t>
+          <t>7,81; 21,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 17,48</t>
+          <t>7,78; 14,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 37,69</t>
+          <t>10,45; 21,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,97; 16,82</t>
+          <t>6,06; 16,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 15,1</t>
+          <t>18,54; 39,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,19</t>
+          <t>7,01; 10,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 24,4</t>
+          <t>1,65; 10,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,21</t>
+          <t>3,72; 7,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,51</t>
+          <t>13,38; 24,95</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>9,35%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>12,26%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,88</t>
+          <t>5,68; 8,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,51</t>
+          <t>4,15; 7,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,74</t>
+          <t>3,77; 8,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,56</t>
+          <t>6,03; 13,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,6</t>
+          <t>8,16; 12,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 21,15</t>
+          <t>1,88; 8,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,94</t>
+          <t>6,31; 11,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,52; 12,13</t>
+          <t>11,13; 21,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,86</t>
+          <t>7,42; 10,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 15,81</t>
+          <t>3,11; 7,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,43</t>
+          <t>5,56; 8,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,64</t>
+          <t>9,52; 15,73</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3,66%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>19,21%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>16,04%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15,63%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>13,57%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>12,19%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 7,83</t>
+          <t>4,04; 9,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,69</t>
+          <t>1,2; 6,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,03</t>
+          <t>2,55; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,79</t>
+          <t>0,84; 9,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,57</t>
+          <t>13,02; 18,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,91; 27,86</t>
+          <t>8,07; 18,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,8; 19,1</t>
+          <t>6,17; 12,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,16; 18,23</t>
+          <t>12,28; 27,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,65</t>
+          <t>10,32; 14,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,2; 20,03</t>
+          <t>6,93; 13,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,64; 14,24</t>
+          <t>4,97; 9,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,45; 14,05</t>
+          <t>8,96; 19,6</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>14,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,02</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 25,87</t>
+          <t>0,64; 12,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,2</t>
+          <t>0,0; 27,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>4,87; 30,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,36</t>
+          <t>14,18; 20,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 21,54</t>
+          <t>10,02; 15,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,79</t>
+          <t>0,0; 42,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,92; 17,5</t>
+          <t>8,94; 22,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 26,15</t>
+          <t>10,24; 14,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,17</t>
+          <t>8,06; 12,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,34</t>
+          <t>3,72; 26,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,18</t>
+          <t>9,37; 20,78</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>11,67%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,05</t>
+          <t>5,07; 6,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,08</t>
+          <t>3,09; 5,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,04</t>
+          <t>3,14; 4,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,16</t>
+          <t>6,84; 10,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,43</t>
+          <t>9,85; 11,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,63; 16,8</t>
+          <t>6,73; 11,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 11,43</t>
+          <t>6,29; 8,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,92; 11,59</t>
+          <t>12,86; 16,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 6,82</t>
+          <t>7,77; 9,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,53; 12,92</t>
+          <t>5,66; 8,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 8,69</t>
+          <t>4,92; 6,52</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 8,83</t>
+          <t>10,43; 12,97</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de hipnóticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6839</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21544</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9043</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12099</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7692</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17850</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13989</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22676</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14531</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>39394</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23031</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34776</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4868; 9884</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13339; 31432</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5334; 14925</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8594; 17038</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5620; 10322</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12500; 27474</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9248; 21848</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17500; 29319</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11705; 18426</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29771; 53109</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16308; 30649</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28425; 42784</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16484</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5934</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9966</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23305</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14639</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20825</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11667</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39789</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20573</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30791</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2609; 6232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10442; 26418</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2979; 11378</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6680; 15792</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5609; 9947</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16669; 31657</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9593; 21364</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15912; 27058</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9201; 14595</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30352; 51140</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14637; 27608</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24648; 38960</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11987</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14125</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5370</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12419</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6888</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15127</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8870</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15617</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18875</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>29252</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14240</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28036</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9224; 15281</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3563; 33455</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2854; 9522</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7510; 20511</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4910; 9177</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10196; 21388</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5017; 13404</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10644; 22435</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15904; 22966</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9468; 57780</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9821; 20714</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20540; 38314</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12177</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30708</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16914</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15225</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17714</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33705</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26500</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24225</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29891</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>64413</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43415</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39450</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9659; 15154</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22241; 42549</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11619; 24910</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9812; 21617</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14452; 21311</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11985; 53680</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19936; 34968</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17681; 34783</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25781; 34731</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36420; 84890</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34704; 55684</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>30629; 50615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4745</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6069</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20515</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58603</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14297</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18124</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25260</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>64672</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>21388</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20088</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3102; 6984</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2528; 13536</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3836; 11785</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>449; 5041</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>17305; 24328</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34203; 77857</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9570; 19866</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11584; 25997</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21648; 29986</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>43978; 84858</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15173; 29103</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>13274; 29017</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5842</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19909</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>60713</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1740</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20096</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>66556</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13836</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1274</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1073; 20846</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2602</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1780; 11030</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16774; 23907</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>49118; 74175</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5183</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5568; 14085</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16753; 24295</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>52955; 84801</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>802; 5705</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9258; 20541</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40059</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>94773</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>45154</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>56125</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>80261</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>209304</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>80036</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>110853</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>120320</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>304077</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>125190</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>166977</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>34601; 46222</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>64164; 117559</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35817; 56418</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>46466; 68866</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>73270; 87136</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>148416; 244069</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>67552; 93418</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>96663; 126743</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>110791; 128638</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>242654; 350887</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>108929; 144349</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>149267; 185547</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_HIP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos</t>
+          <t>Consumo de hipnóticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos</t>
+          <t>Consumo de hipnóticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_HIP-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Clase-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,78</t>
+          <t>2,88; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,57</t>
+          <t>3,82; 8,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,32</t>
+          <t>4,2; 8,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,22</t>
+          <t>4,27; 7,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,19</t>
+          <t>3,89; 8,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 13,94</t>
+          <t>8,45; 13,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,38</t>
+          <t>3,82; 5,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,98</t>
+          <t>4,3; 7,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,31</t>
+          <t>6,97; 10,32</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,68</t>
+          <t>3,08; 7,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,15</t>
+          <t>3,18; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,64</t>
+          <t>4,83; 11,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,12</t>
+          <t>5,31; 9,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,17</t>
+          <t>6,52; 12,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,08</t>
+          <t>9,37; 16,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,67</t>
+          <t>4,88; 7,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,75</t>
+          <t>5,14; 8,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,29</t>
+          <t>8,37; 13,02</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,33</t>
+          <t>5,86; 9,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,04</t>
+          <t>0,84; 7,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 21,33</t>
+          <t>8,0; 21,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 14,53</t>
+          <t>7,57; 13,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 21,92</t>
+          <t>10,47; 21,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 39,08</t>
+          <t>18,02; 39,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,12</t>
+          <t>6,83; 10,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,08</t>
+          <t>1,55; 9,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,38; 24,95</t>
+          <t>13,21; 23,84</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,91</t>
+          <t>5,65; 9,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,94</t>
+          <t>4,04; 7,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,28</t>
+          <t>6,26; 13,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,03</t>
+          <t>8,29; 11,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,44</t>
+          <t>2,04; 8,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 21,89</t>
+          <t>10,74; 20,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,0</t>
+          <t>7,53; 10,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,24</t>
+          <t>3,14; 7,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,73</t>
+          <t>9,49; 15,63</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,09</t>
+          <t>4,06; 8,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,42</t>
+          <t>1,15; 6,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,39</t>
+          <t>1,04; 10,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,3</t>
+          <t>12,74; 18,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 18,37</t>
+          <t>7,85; 18,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 27,55</t>
+          <t>12,88; 27,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,29</t>
+          <t>9,95; 13,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,37</t>
+          <t>6,67; 13,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 19,6</t>
+          <t>9,47; 19,67</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 12,5</t>
+          <t>0,7; 12,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 30,18</t>
+          <t>4,55; 27,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,21</t>
+          <t>12,62; 18,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,14</t>
+          <t>9,96; 14,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,94; 22,61</t>
+          <t>9,07; 21,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 14,86</t>
+          <t>8,69; 12,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,91</t>
+          <t>8,23; 13,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,37; 20,78</t>
+          <t>8,94; 20,71</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,77</t>
+          <t>4,88; 6,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,65</t>
+          <t>3,01; 5,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,14</t>
+          <t>6,76; 10,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,85; 11,72</t>
+          <t>9,45; 11,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,06</t>
+          <t>6,66; 11,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,86; 16,86</t>
+          <t>12,66; 16,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,77; 9,02</t>
+          <t>7,49; 8,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,19</t>
+          <t>5,83; 8,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,43; 12,97</t>
+          <t>10,35; 13,09</t>
         </is>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6839</t>
+          <t>6660</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7692</t>
+          <t>9498</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14531</t>
+          <t>16158</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4868; 9884</t>
+          <t>4688; 9167</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13339; 31432</t>
+          <t>14005; 31546</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8594; 17038</t>
+          <t>8588; 16610</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5620; 10322</t>
+          <t>7198; 12959</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12500; 27474</t>
+          <t>11624; 26523</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17500; 29319</t>
+          <t>17771; 29049</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11705; 18426</t>
+          <t>12670; 19742</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29771; 53109</t>
+          <t>28645; 51218</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28425; 42784</t>
+          <t>28951; 42835</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7544</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11667</t>
+          <t>13174</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2609; 6232</t>
+          <t>2784; 6452</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10442; 26418</t>
+          <t>10318; 26131</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6680; 15792</t>
+          <t>6033; 14456</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5609; 9947</t>
+          <t>6515; 11797</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16669; 31657</t>
+          <t>16961; 31885</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15912; 27058</t>
+          <t>15772; 27712</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9201; 14595</t>
+          <t>10393; 16592</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30352; 51140</t>
+          <t>30026; 50834</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24648; 38960</t>
+          <t>24546; 38174</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11987</t>
+          <t>11223</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6888</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18875</t>
+          <t>17752</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9224; 15281</t>
+          <t>9017; 14112</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3563; 33455</t>
+          <t>3979; 34083</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2374,17 +2374,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7510; 20511</t>
+          <t>7693; 20732</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4910; 9177</t>
+          <t>4663; 8598</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10196; 21388</t>
+          <t>10210; 20969</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10644; 22435</t>
+          <t>10345; 22410</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15904; 22966</t>
+          <t>14722; 21746</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>9468; 57780</t>
+          <t>8881; 54971</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20540; 38314</t>
+          <t>20289; 36610</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12177</t>
+          <t>12239</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17714</t>
+          <t>18230</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29891</t>
+          <t>30469</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9659; 15154</t>
+          <t>9590; 15360</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22241; 42549</t>
+          <t>21687; 41386</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2582,17 +2582,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9812; 21617</t>
+          <t>10196; 21599</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14452; 21311</t>
+          <t>15101; 21807</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11985; 53680</t>
+          <t>12991; 53848</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2602,17 +2602,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17681; 34783</t>
+          <t>17062; 32811</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25781; 34731</t>
+          <t>26514; 35857</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36420; 84890</t>
+          <t>36822; 84997</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30629; 50615</t>
+          <t>30516; 50277</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>4544</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20515</t>
+          <t>19044</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25260</t>
+          <t>23588</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3102; 6984</t>
+          <t>3020; 6652</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2528; 13536</t>
+          <t>2426; 12815</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>449; 5041</t>
+          <t>558; 5414</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17305; 24328</t>
+          <t>15975; 22604</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34203; 77857</t>
+          <t>33262; 76271</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11584; 25997</t>
+          <t>12155; 26027</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21648; 29986</t>
+          <t>19884; 27528</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>43978; 84858</t>
+          <t>42299; 85245</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>13274; 29017</t>
+          <t>14019; 29133</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19909</t>
+          <t>18620</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20096</t>
+          <t>18952</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1274</t>
+          <t>0; 1977</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1073; 20846</t>
+          <t>1162; 20629</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2998,17 +2998,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1780; 11030</t>
+          <t>1662; 10030</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16774; 23907</t>
+          <t>15477; 22136</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49118; 74175</t>
+          <t>48803; 72790</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3018,17 +3018,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5568; 14085</t>
+          <t>5649; 13704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16753; 24295</t>
+          <t>15491; 22514</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>52955; 84801</t>
+          <t>54069; 85599</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9258; 20541</t>
+          <t>8836; 20478</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>40059</t>
+          <t>39448</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>80261</t>
+          <t>80645</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>120320</t>
+          <t>120093</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>34601; 46222</t>
+          <t>34470; 45021</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>64164; 117559</t>
+          <t>62509; 119083</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46466; 68866</t>
+          <t>45895; 69052</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>73270; 87136</t>
+          <t>73985; 88033</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>148416; 244069</t>
+          <t>147021; 245066</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3226,17 +3226,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>96663; 126743</t>
+          <t>95159; 126144</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>110791; 128638</t>
+          <t>111579; 129054</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>242654; 350887</t>
+          <t>249687; 356712</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>149267; 185547</t>
+          <t>148097; 187208</t>
         </is>
       </c>
     </row>
